--- a/AAII_Financials/Quarterly/PXSLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PXSLY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>PXSLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,195 +665,208 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42916</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42825</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42735</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42551</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6700</v>
+        <v>2500</v>
       </c>
       <c r="E8" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F8" s="3">
         <v>1500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>700</v>
       </c>
-      <c r="H8" s="3">
-        <v>12900</v>
-      </c>
       <c r="I8" s="3">
-        <v>11600</v>
+        <v>12700</v>
       </c>
       <c r="J8" s="3">
+        <v>11400</v>
+      </c>
+      <c r="K8" s="3">
         <v>20900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>700</v>
+      </c>
+      <c r="E9" s="3">
         <v>500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6200</v>
+        <v>1800</v>
       </c>
       <c r="E10" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F10" s="3">
         <v>1300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>500</v>
       </c>
-      <c r="H10" s="3">
-        <v>12200</v>
-      </c>
       <c r="I10" s="3">
-        <v>11200</v>
+        <v>12100</v>
       </c>
       <c r="J10" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K10" s="3">
         <v>20400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>9600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -869,49 +882,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>900</v>
+      </c>
+      <c r="E12" s="3">
         <v>2100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I12" s="3">
         <v>2200</v>
       </c>
-      <c r="G12" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K12" s="3">
         <v>2300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="L12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N12" s="3">
         <v>1200</v>
       </c>
-      <c r="J12" s="3">
-        <v>2300</v>
-      </c>
-      <c r="K12" s="3">
-        <v>2500</v>
-      </c>
-      <c r="L12" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M12" s="3">
-        <v>1200</v>
-      </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -951,8 +968,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -977,64 +997,70 @@
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
+      <c r="K14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E15" s="3">
         <v>900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>500</v>
-      </c>
-      <c r="J15" s="3">
-        <v>1100</v>
       </c>
       <c r="K15" s="3">
         <v>1100</v>
       </c>
       <c r="L15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M15" s="3">
         <v>600</v>
-      </c>
-      <c r="M15" s="3">
-        <v>1100</v>
       </c>
       <c r="N15" s="3">
         <v>1100</v>
       </c>
       <c r="O15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P15" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1047,90 +1073,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11600</v>
+        <v>9200</v>
       </c>
       <c r="E17" s="3">
+        <v>11500</v>
+      </c>
+      <c r="F17" s="3">
         <v>5800</v>
       </c>
-      <c r="F17" s="3">
-        <v>9600</v>
-      </c>
       <c r="G17" s="3">
-        <v>5500</v>
+        <v>9500</v>
       </c>
       <c r="H17" s="3">
-        <v>11900</v>
+        <v>5400</v>
       </c>
       <c r="I17" s="3">
-        <v>5900</v>
+        <v>11700</v>
       </c>
       <c r="J17" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K17" s="3">
         <v>17200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6100</v>
-      </c>
-      <c r="M17" s="3">
-        <v>12300</v>
       </c>
       <c r="N17" s="3">
         <v>12300</v>
       </c>
       <c r="O17" s="3">
+        <v>12300</v>
+      </c>
+      <c r="P17" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-5000</v>
+        <v>-6800</v>
       </c>
       <c r="E18" s="3">
-        <v>-4400</v>
+        <v>-4900</v>
       </c>
       <c r="F18" s="3">
-        <v>-7800</v>
+        <v>-4300</v>
       </c>
       <c r="G18" s="3">
-        <v>-4800</v>
+        <v>-7700</v>
       </c>
       <c r="H18" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="I18" s="3">
         <v>1100</v>
       </c>
-      <c r="I18" s="3">
-        <v>5700</v>
-      </c>
       <c r="J18" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K18" s="3">
         <v>3700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1146,8 +1179,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1155,81 +1189,87 @@
         <v>-100</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-5000</v>
+        <v>-5800</v>
       </c>
       <c r="E21" s="3">
-        <v>-4700</v>
+        <v>-4900</v>
       </c>
       <c r="F21" s="3">
-        <v>-7600</v>
+        <v>-4600</v>
       </c>
       <c r="G21" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="H21" s="3">
         <v>-4600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>300</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="3">
         <v>5000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-6900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1269,49 +1309,55 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5000</v>
       </c>
-      <c r="E23" s="3">
-        <v>-4300</v>
-      </c>
       <c r="F23" s="3">
-        <v>-8500</v>
+        <v>-4200</v>
       </c>
       <c r="G23" s="3">
-        <v>-5100</v>
+        <v>-8400</v>
       </c>
       <c r="H23" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="I23" s="3">
         <v>300</v>
       </c>
-      <c r="I23" s="3">
-        <v>5500</v>
-      </c>
       <c r="J23" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K23" s="3">
         <v>4000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1351,8 +1397,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1392,90 +1441,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5000</v>
       </c>
-      <c r="E26" s="3">
-        <v>-4300</v>
-      </c>
       <c r="F26" s="3">
-        <v>-8500</v>
+        <v>-4200</v>
       </c>
       <c r="G26" s="3">
-        <v>-5100</v>
+        <v>-8400</v>
       </c>
       <c r="H26" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="I26" s="3">
         <v>300</v>
       </c>
-      <c r="I26" s="3">
-        <v>5500</v>
-      </c>
       <c r="J26" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K26" s="3">
         <v>4000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5000</v>
       </c>
-      <c r="E27" s="3">
-        <v>-4300</v>
-      </c>
       <c r="F27" s="3">
-        <v>-8500</v>
+        <v>-4200</v>
       </c>
       <c r="G27" s="3">
-        <v>-5100</v>
+        <v>-8400</v>
       </c>
       <c r="H27" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="I27" s="3">
         <v>300</v>
       </c>
-      <c r="I27" s="3">
-        <v>5500</v>
-      </c>
       <c r="J27" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K27" s="3">
         <v>4000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-8000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1515,8 +1573,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1556,8 +1617,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1597,8 +1661,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1638,8 +1705,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1647,81 +1717,87 @@
         <v>100</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5000</v>
       </c>
-      <c r="E33" s="3">
-        <v>-4300</v>
-      </c>
       <c r="F33" s="3">
-        <v>-8500</v>
+        <v>-4200</v>
       </c>
       <c r="G33" s="3">
-        <v>-5100</v>
+        <v>-8400</v>
       </c>
       <c r="H33" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="I33" s="3">
         <v>300</v>
       </c>
-      <c r="I33" s="3">
-        <v>5500</v>
-      </c>
       <c r="J33" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K33" s="3">
         <v>4000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1761,95 +1837,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5000</v>
       </c>
-      <c r="E35" s="3">
-        <v>-4300</v>
-      </c>
       <c r="F35" s="3">
-        <v>-8500</v>
+        <v>-4200</v>
       </c>
       <c r="G35" s="3">
-        <v>-5100</v>
+        <v>-8400</v>
       </c>
       <c r="H35" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="I35" s="3">
         <v>300</v>
       </c>
-      <c r="I35" s="3">
-        <v>5500</v>
-      </c>
       <c r="J35" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K35" s="3">
         <v>4000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42916</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42825</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42735</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42551</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1865,8 +1950,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1882,49 +1968,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>20900</v>
+        <v>17200</v>
       </c>
       <c r="E41" s="3">
-        <v>23600</v>
+        <v>20700</v>
       </c>
       <c r="F41" s="3">
-        <v>28300</v>
+        <v>23300</v>
       </c>
       <c r="G41" s="3">
-        <v>31500</v>
+        <v>27900</v>
       </c>
       <c r="H41" s="3">
-        <v>20900</v>
+        <v>31000</v>
       </c>
       <c r="I41" s="3">
-        <v>23200</v>
+        <v>20600</v>
       </c>
       <c r="J41" s="3">
+        <v>22900</v>
+      </c>
+      <c r="K41" s="3">
         <v>16900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>19200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>21200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>28500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>30100</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1964,90 +2054,99 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E43" s="3">
         <v>4900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3300</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N43" s="3">
         <v>3800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3600</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E44" s="3">
         <v>1400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1600</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="J44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K44" s="3">
         <v>1700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1900</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N44" s="3">
         <v>2300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1600</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2087,172 +2186,187 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>26900</v>
+      </c>
+      <c r="F46" s="3">
+        <v>26200</v>
+      </c>
+      <c r="G46" s="3">
+        <v>31000</v>
+      </c>
+      <c r="H46" s="3">
+        <v>33000</v>
+      </c>
+      <c r="I46" s="3">
+        <v>23900</v>
+      </c>
+      <c r="J46" s="3">
+        <v>24000</v>
+      </c>
+      <c r="K46" s="3">
+        <v>22600</v>
+      </c>
+      <c r="L46" s="3">
+        <v>20800</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N46" s="3">
         <v>27300</v>
       </c>
-      <c r="E46" s="3">
-        <v>26600</v>
-      </c>
-      <c r="F46" s="3">
-        <v>31500</v>
-      </c>
-      <c r="G46" s="3">
-        <v>33500</v>
-      </c>
-      <c r="H46" s="3">
-        <v>24200</v>
-      </c>
-      <c r="I46" s="3">
-        <v>24300</v>
-      </c>
-      <c r="J46" s="3">
-        <v>22600</v>
-      </c>
-      <c r="K46" s="3">
-        <v>20800</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M46" s="3">
-        <v>27300</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>33700</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>700</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="3">
+      <c r="E47" s="3">
         <v>700</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="3">
+        <v>700</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="3">
         <v>800</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J47" s="3">
-        <v>1000</v>
+      <c r="J47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K47" s="3">
         <v>1000</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M47" s="3">
-        <v>900</v>
+      <c r="L47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N47" s="3">
         <v>900</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>900</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="E48" s="3">
-        <v>7300</v>
+        <v>6800</v>
       </c>
       <c r="F48" s="3">
-        <v>7600</v>
+        <v>7200</v>
       </c>
       <c r="G48" s="3">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="H48" s="3">
-        <v>8400</v>
+        <v>7800</v>
       </c>
       <c r="I48" s="3">
-        <v>8700</v>
+        <v>8300</v>
       </c>
       <c r="J48" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K48" s="3">
         <v>9200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10800</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N48" s="3">
         <v>11900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12900</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>600</v>
+      </c>
+      <c r="E49" s="3">
         <v>500</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="3">
-        <v>500</v>
+      <c r="F49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G49" s="3">
         <v>500</v>
       </c>
       <c r="H49" s="3">
+        <v>500</v>
+      </c>
+      <c r="I49" s="3">
         <v>300</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="J49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K49" s="3">
         <v>300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>400</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M49" s="3">
-        <v>100</v>
+      <c r="M49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N49" s="3">
         <v>100</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>100</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2292,8 +2406,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2333,31 +2450,34 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="3">
-        <v>1700</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="3">
+      <c r="E52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="3">
         <v>1000</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I52" s="3">
-        <v>4100</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>10</v>
+      <c r="I52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J52" s="3">
+        <v>4000</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>10</v>
@@ -2374,8 +2494,11 @@
       <c r="O52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2415,49 +2538,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>35400</v>
+        <v>28100</v>
       </c>
       <c r="E54" s="3">
-        <v>35600</v>
+        <v>34900</v>
       </c>
       <c r="F54" s="3">
-        <v>40300</v>
+        <v>35000</v>
       </c>
       <c r="G54" s="3">
-        <v>42900</v>
+        <v>39800</v>
       </c>
       <c r="H54" s="3">
-        <v>33700</v>
+        <v>42300</v>
       </c>
       <c r="I54" s="3">
-        <v>37100</v>
+        <v>33200</v>
       </c>
       <c r="J54" s="3">
-        <v>33000</v>
+        <v>36600</v>
       </c>
       <c r="K54" s="3">
         <v>33000</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="L54" s="3">
+        <v>33000</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N54" s="3">
         <v>40300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>47600</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2473,8 +2602,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2490,254 +2620,273 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E57" s="3">
         <v>3200</v>
       </c>
-      <c r="E57" s="3">
-        <v>2200</v>
-      </c>
       <c r="F57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G57" s="3">
         <v>2900</v>
       </c>
-      <c r="G57" s="3">
-        <v>2100</v>
-      </c>
       <c r="H57" s="3">
-        <v>3800</v>
+        <v>2000</v>
       </c>
       <c r="I57" s="3">
+        <v>3700</v>
+      </c>
+      <c r="J57" s="3">
         <v>1900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4900</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N57" s="3">
         <v>2600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3600</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E58" s="3">
         <v>800</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="3">
         <v>800</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I58" s="3">
         <v>700</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J58" s="3">
-        <v>700</v>
+      <c r="J58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K58" s="3">
         <v>700</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M58" s="3">
-        <v>600</v>
+      <c r="L58" s="3">
+        <v>700</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N58" s="3">
         <v>600</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>600</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E59" s="3">
         <v>1400</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="F59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="3">
         <v>1600</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H59" s="3">
+      <c r="H59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I59" s="3">
         <v>1000</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K59" s="3">
         <v>1100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2000</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N59" s="3">
         <v>4900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3700</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G60" s="3">
+        <v>5300</v>
+      </c>
+      <c r="H60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I60" s="3">
         <v>5500</v>
       </c>
-      <c r="E60" s="3">
-        <v>2200</v>
-      </c>
-      <c r="F60" s="3">
-        <v>5400</v>
-      </c>
-      <c r="G60" s="3">
-        <v>2100</v>
-      </c>
-      <c r="H60" s="3">
-        <v>5500</v>
-      </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7600</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N60" s="3">
         <v>8100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8000</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E61" s="3">
         <v>4000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4400</v>
       </c>
-      <c r="G61" s="3">
-        <v>5400</v>
-      </c>
       <c r="H61" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I61" s="3">
         <v>4800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>6400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6700</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="E62" s="3">
+        <v>15800</v>
+      </c>
+      <c r="F62" s="3">
+        <v>17500</v>
+      </c>
+      <c r="G62" s="3">
+        <v>15600</v>
+      </c>
+      <c r="H62" s="3">
+        <v>17300</v>
+      </c>
+      <c r="I62" s="3">
+        <v>15600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>16700</v>
+      </c>
+      <c r="K62" s="3">
+        <v>15100</v>
+      </c>
+      <c r="L62" s="3">
+        <v>16800</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N62" s="3">
+        <v>18200</v>
+      </c>
+      <c r="O62" s="3">
         <v>17700</v>
       </c>
-      <c r="F62" s="3">
-        <v>15800</v>
-      </c>
-      <c r="G62" s="3">
-        <v>17600</v>
-      </c>
-      <c r="H62" s="3">
-        <v>15900</v>
-      </c>
-      <c r="I62" s="3">
-        <v>17000</v>
-      </c>
-      <c r="J62" s="3">
-        <v>15100</v>
-      </c>
-      <c r="K62" s="3">
-        <v>16800</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M62" s="3">
-        <v>18200</v>
-      </c>
-      <c r="N62" s="3">
-        <v>17700</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2777,8 +2926,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2818,8 +2970,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2859,49 +3014,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>25500</v>
+        <v>24700</v>
       </c>
       <c r="E66" s="3">
-        <v>24900</v>
+        <v>25100</v>
       </c>
       <c r="F66" s="3">
-        <v>25600</v>
+        <v>24500</v>
       </c>
       <c r="G66" s="3">
-        <v>25000</v>
+        <v>25200</v>
       </c>
       <c r="H66" s="3">
-        <v>26200</v>
+        <v>24700</v>
       </c>
       <c r="I66" s="3">
-        <v>24700</v>
+        <v>25900</v>
       </c>
       <c r="J66" s="3">
+        <v>24300</v>
+      </c>
+      <c r="K66" s="3">
         <v>26300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>30400</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N66" s="3">
         <v>32700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>32500</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2917,8 +3078,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2958,8 +3120,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2999,8 +3164,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3040,8 +3208,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3081,49 +3252,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-237200</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-232500</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-224400</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J72" s="3">
+        <v>-240400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-233900</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-229200</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-221300</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K72" s="3">
         <v>-225200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-247500</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N72" s="3">
         <v>-242500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-234900</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3163,8 +3340,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3204,8 +3384,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3245,49 +3428,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10000</v>
+        <v>3300</v>
       </c>
       <c r="E76" s="3">
-        <v>10700</v>
+        <v>9800</v>
       </c>
       <c r="F76" s="3">
-        <v>14700</v>
+        <v>10500</v>
       </c>
       <c r="G76" s="3">
-        <v>17900</v>
+        <v>14500</v>
       </c>
       <c r="H76" s="3">
+        <v>17700</v>
+      </c>
+      <c r="I76" s="3">
+        <v>7400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>12300</v>
+      </c>
+      <c r="K76" s="3">
+        <v>6700</v>
+      </c>
+      <c r="L76" s="3">
+        <v>2600</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N76" s="3">
         <v>7500</v>
       </c>
-      <c r="I76" s="3">
-        <v>12400</v>
-      </c>
-      <c r="J76" s="3">
-        <v>6700</v>
-      </c>
-      <c r="K76" s="3">
-        <v>2600</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M76" s="3">
-        <v>7500</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15200</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3327,95 +3516,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42916</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42825</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42735</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42551</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5000</v>
       </c>
-      <c r="E81" s="3">
-        <v>-4300</v>
-      </c>
       <c r="F81" s="3">
-        <v>-8500</v>
+        <v>-4200</v>
       </c>
       <c r="G81" s="3">
-        <v>-5100</v>
+        <v>-8400</v>
       </c>
       <c r="H81" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="I81" s="3">
         <v>300</v>
       </c>
-      <c r="I81" s="3">
-        <v>5500</v>
-      </c>
       <c r="J81" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K81" s="3">
         <v>4000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3431,8 +3629,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3472,8 +3671,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3513,8 +3715,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3554,8 +3759,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3595,8 +3803,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3636,8 +3847,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3677,49 +3891,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-6400</v>
+        <v>-2400</v>
       </c>
       <c r="E89" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-4100</v>
       </c>
-      <c r="F89" s="3">
-        <v>-6900</v>
-      </c>
       <c r="G89" s="3">
-        <v>-4200</v>
+        <v>-6800</v>
       </c>
       <c r="H89" s="3">
-        <v>5100</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J89" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="I89" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K89" s="3">
         <v>3100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3735,49 +3955,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F91" s="3">
+      <c r="F91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H91" s="3">
+      <c r="H91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-200</v>
+      <c r="M91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3817,8 +4041,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3858,49 +4085,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-200</v>
       </c>
       <c r="N94" s="3">
         <v>-200</v>
       </c>
       <c r="O94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3916,8 +4149,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3957,8 +4191,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3998,8 +4235,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4039,8 +4279,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4080,49 +4323,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>14400</v>
+      </c>
+      <c r="H100" s="3">
         <v>14700</v>
       </c>
-      <c r="G100" s="3">
-        <v>15000</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-600</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-600</v>
+      <c r="J100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K100" s="3">
         <v>-600</v>
       </c>
       <c r="L100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M100" s="3">
         <v>-300</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-600</v>
       </c>
       <c r="N100" s="3">
         <v>-600</v>
       </c>
       <c r="O100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4151,56 +4400,62 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-7300</v>
+        <v>-3500</v>
       </c>
       <c r="E102" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-4600</v>
       </c>
-      <c r="F102" s="3">
-        <v>7400</v>
-      </c>
       <c r="G102" s="3">
-        <v>10600</v>
+        <v>7300</v>
       </c>
       <c r="H102" s="3">
-        <v>4100</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J102" s="3">
+        <v>10400</v>
+      </c>
+      <c r="I102" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K102" s="3">
         <v>2400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-7200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PXSLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PXSLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>PXSLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,208 +665,221 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42551</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2500</v>
+        <v>6400</v>
       </c>
       <c r="E8" s="3">
-        <v>6600</v>
+        <v>2700</v>
       </c>
       <c r="F8" s="3">
+        <v>7200</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>13900</v>
+      </c>
+      <c r="K8" s="3">
+        <v>11400</v>
+      </c>
+      <c r="L8" s="3">
+        <v>20900</v>
+      </c>
+      <c r="M8" s="3">
+        <v>7900</v>
+      </c>
+      <c r="N8" s="3">
+        <v>2900</v>
+      </c>
+      <c r="O8" s="3">
+        <v>4900</v>
+      </c>
+      <c r="P8" s="3">
+        <v>10300</v>
+      </c>
+      <c r="Q8" s="3">
         <v>1500</v>
       </c>
-      <c r="G8" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H8" s="3">
-        <v>700</v>
-      </c>
-      <c r="I8" s="3">
-        <v>12700</v>
-      </c>
-      <c r="J8" s="3">
-        <v>11400</v>
-      </c>
-      <c r="K8" s="3">
-        <v>20900</v>
-      </c>
-      <c r="L8" s="3">
-        <v>7900</v>
-      </c>
-      <c r="M8" s="3">
-        <v>2900</v>
-      </c>
-      <c r="N8" s="3">
-        <v>4900</v>
-      </c>
-      <c r="O8" s="3">
-        <v>10300</v>
-      </c>
-      <c r="P8" s="3">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>800</v>
+      </c>
+      <c r="F9" s="3">
+        <v>500</v>
+      </c>
+      <c r="G9" s="3">
+        <v>200</v>
+      </c>
+      <c r="H9" s="3">
+        <v>500</v>
+      </c>
+      <c r="I9" s="3">
+        <v>200</v>
+      </c>
+      <c r="J9" s="3">
         <v>700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="K9" s="3">
+        <v>300</v>
+      </c>
+      <c r="L9" s="3">
         <v>500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="M9" s="3">
+        <v>400</v>
+      </c>
+      <c r="N9" s="3">
         <v>200</v>
       </c>
-      <c r="G9" s="3">
-        <v>400</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="O9" s="3">
+        <v>500</v>
+      </c>
+      <c r="P9" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q9" s="3">
         <v>200</v>
       </c>
-      <c r="I9" s="3">
-        <v>700</v>
-      </c>
-      <c r="J9" s="3">
-        <v>300</v>
-      </c>
-      <c r="K9" s="3">
-        <v>500</v>
-      </c>
-      <c r="L9" s="3">
-        <v>400</v>
-      </c>
-      <c r="M9" s="3">
-        <v>200</v>
-      </c>
-      <c r="N9" s="3">
-        <v>500</v>
-      </c>
-      <c r="O9" s="3">
-        <v>700</v>
-      </c>
-      <c r="P9" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1800</v>
+        <v>6100</v>
       </c>
       <c r="E10" s="3">
-        <v>6100</v>
+        <v>1900</v>
       </c>
       <c r="F10" s="3">
-        <v>1300</v>
+        <v>6600</v>
       </c>
       <c r="G10" s="3">
         <v>1400</v>
       </c>
       <c r="H10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I10" s="3">
         <v>500</v>
       </c>
-      <c r="I10" s="3">
-        <v>12100</v>
-      </c>
       <c r="J10" s="3">
+        <v>13100</v>
+      </c>
+      <c r="K10" s="3">
         <v>11100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>20400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>9600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -883,52 +896,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E12" s="3">
         <v>900</v>
       </c>
-      <c r="E12" s="3">
-        <v>2100</v>
-      </c>
       <c r="F12" s="3">
-        <v>1100</v>
+        <v>2200</v>
       </c>
       <c r="G12" s="3">
-        <v>2100</v>
+        <v>1200</v>
       </c>
       <c r="H12" s="3">
-        <v>1100</v>
+        <v>2300</v>
       </c>
       <c r="I12" s="3">
-        <v>2200</v>
+        <v>1200</v>
       </c>
       <c r="J12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K12" s="3">
         <v>1200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -971,13 +988,16 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
@@ -1000,67 +1020,73 @@
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G15" s="3">
+        <v>500</v>
+      </c>
+      <c r="H15" s="3">
+        <v>900</v>
+      </c>
+      <c r="I15" s="3">
+        <v>500</v>
+      </c>
+      <c r="J15" s="3">
         <v>1100</v>
       </c>
-      <c r="E15" s="3">
-        <v>900</v>
-      </c>
-      <c r="F15" s="3">
-        <v>400</v>
-      </c>
-      <c r="G15" s="3">
-        <v>900</v>
-      </c>
-      <c r="H15" s="3">
-        <v>400</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>500</v>
-      </c>
-      <c r="K15" s="3">
-        <v>1100</v>
       </c>
       <c r="L15" s="3">
         <v>1100</v>
       </c>
       <c r="M15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N15" s="3">
         <v>600</v>
-      </c>
-      <c r="N15" s="3">
-        <v>1100</v>
       </c>
       <c r="O15" s="3">
         <v>1100</v>
       </c>
       <c r="P15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q15" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1074,96 +1100,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9200</v>
+        <v>10500</v>
       </c>
       <c r="E17" s="3">
-        <v>11500</v>
+        <v>10100</v>
       </c>
       <c r="F17" s="3">
+        <v>12500</v>
+      </c>
+      <c r="G17" s="3">
+        <v>6300</v>
+      </c>
+      <c r="H17" s="3">
+        <v>10300</v>
+      </c>
+      <c r="I17" s="3">
+        <v>5900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>12700</v>
+      </c>
+      <c r="K17" s="3">
         <v>5800</v>
       </c>
-      <c r="G17" s="3">
-        <v>9500</v>
-      </c>
-      <c r="H17" s="3">
-        <v>5400</v>
-      </c>
-      <c r="I17" s="3">
-        <v>11700</v>
-      </c>
-      <c r="J17" s="3">
-        <v>5800</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>17200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6100</v>
-      </c>
-      <c r="N17" s="3">
-        <v>12300</v>
       </c>
       <c r="O17" s="3">
         <v>12300</v>
       </c>
       <c r="P17" s="3">
+        <v>12300</v>
+      </c>
+      <c r="Q17" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-6800</v>
+        <v>-4100</v>
       </c>
       <c r="E18" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K18" s="3">
+        <v>5600</v>
+      </c>
+      <c r="L18" s="3">
+        <v>3700</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-4900</v>
       </c>
-      <c r="F18" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-7700</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="I18" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>5600</v>
-      </c>
-      <c r="K18" s="3">
-        <v>3700</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-4900</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1180,96 +1213,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-100</v>
+        <v>1500</v>
       </c>
       <c r="E20" s="3">
         <v>-100</v>
       </c>
       <c r="F20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
-        <v>-700</v>
-      </c>
       <c r="J20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-5800</v>
+        <v>-2600</v>
       </c>
       <c r="E21" s="3">
-        <v>-4900</v>
+        <v>-6300</v>
       </c>
       <c r="F21" s="3">
-        <v>-4600</v>
+        <v>-5400</v>
       </c>
       <c r="G21" s="3">
-        <v>-7500</v>
+        <v>-5000</v>
       </c>
       <c r="H21" s="3">
-        <v>-4600</v>
+        <v>-8200</v>
       </c>
       <c r="I21" s="3">
-        <v>300</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K21" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>400</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="3">
         <v>5000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-6900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1312,52 +1352,58 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-6800</v>
+        <v>-2600</v>
       </c>
       <c r="E23" s="3">
-        <v>-5000</v>
+        <v>-7500</v>
       </c>
       <c r="F23" s="3">
-        <v>-4200</v>
+        <v>-5400</v>
       </c>
       <c r="G23" s="3">
-        <v>-8400</v>
+        <v>-4600</v>
       </c>
       <c r="H23" s="3">
-        <v>-5000</v>
+        <v>-9100</v>
       </c>
       <c r="I23" s="3">
-        <v>300</v>
+        <v>-5400</v>
       </c>
       <c r="J23" s="3">
+        <v>400</v>
+      </c>
+      <c r="K23" s="3">
         <v>5400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1400,8 +1446,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1444,96 +1493,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-6800</v>
+        <v>-2600</v>
       </c>
       <c r="E26" s="3">
-        <v>-5000</v>
+        <v>-7500</v>
       </c>
       <c r="F26" s="3">
-        <v>-4200</v>
+        <v>-5400</v>
       </c>
       <c r="G26" s="3">
-        <v>-8400</v>
+        <v>-4600</v>
       </c>
       <c r="H26" s="3">
-        <v>-5000</v>
+        <v>-9100</v>
       </c>
       <c r="I26" s="3">
-        <v>300</v>
+        <v>-5400</v>
       </c>
       <c r="J26" s="3">
+        <v>400</v>
+      </c>
+      <c r="K26" s="3">
         <v>5400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-6800</v>
+        <v>-2600</v>
       </c>
       <c r="E27" s="3">
-        <v>-5000</v>
+        <v>-7500</v>
       </c>
       <c r="F27" s="3">
-        <v>-4200</v>
+        <v>-5400</v>
       </c>
       <c r="G27" s="3">
-        <v>-8400</v>
+        <v>-4600</v>
       </c>
       <c r="H27" s="3">
-        <v>-5000</v>
+        <v>-9100</v>
       </c>
       <c r="I27" s="3">
-        <v>300</v>
+        <v>-5400</v>
       </c>
       <c r="J27" s="3">
+        <v>400</v>
+      </c>
+      <c r="K27" s="3">
         <v>5400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1576,8 +1634,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1620,8 +1681,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1664,8 +1728,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1708,96 +1775,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>-1500</v>
       </c>
       <c r="E32" s="3">
         <v>100</v>
       </c>
       <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
-        <v>700</v>
-      </c>
       <c r="J32" s="3">
+        <v>800</v>
+      </c>
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-6800</v>
+        <v>-2600</v>
       </c>
       <c r="E33" s="3">
-        <v>-5000</v>
+        <v>-7500</v>
       </c>
       <c r="F33" s="3">
-        <v>-4200</v>
+        <v>-5400</v>
       </c>
       <c r="G33" s="3">
-        <v>-8400</v>
+        <v>-4600</v>
       </c>
       <c r="H33" s="3">
-        <v>-5000</v>
+        <v>-9100</v>
       </c>
       <c r="I33" s="3">
-        <v>300</v>
+        <v>-5400</v>
       </c>
       <c r="J33" s="3">
+        <v>400</v>
+      </c>
+      <c r="K33" s="3">
         <v>5400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1840,101 +1916,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-6800</v>
+        <v>-2600</v>
       </c>
       <c r="E35" s="3">
-        <v>-5000</v>
+        <v>-7500</v>
       </c>
       <c r="F35" s="3">
-        <v>-4200</v>
+        <v>-5400</v>
       </c>
       <c r="G35" s="3">
-        <v>-8400</v>
+        <v>-4600</v>
       </c>
       <c r="H35" s="3">
-        <v>-5000</v>
+        <v>-9100</v>
       </c>
       <c r="I35" s="3">
-        <v>300</v>
+        <v>-5400</v>
       </c>
       <c r="J35" s="3">
+        <v>400</v>
+      </c>
+      <c r="K35" s="3">
         <v>5400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42551</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1951,8 +2036,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1969,52 +2055,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>17200</v>
+        <v>10700</v>
       </c>
       <c r="E41" s="3">
-        <v>20700</v>
+        <v>18700</v>
       </c>
       <c r="F41" s="3">
-        <v>23300</v>
+        <v>22500</v>
       </c>
       <c r="G41" s="3">
-        <v>27900</v>
+        <v>25400</v>
       </c>
       <c r="H41" s="3">
-        <v>31000</v>
+        <v>30400</v>
       </c>
       <c r="I41" s="3">
-        <v>20600</v>
+        <v>33800</v>
       </c>
       <c r="J41" s="3">
+        <v>22500</v>
+      </c>
+      <c r="K41" s="3">
         <v>22900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>16900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>19200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>21200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>28500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>30100</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2057,96 +2147,105 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F43" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I43" s="3">
+        <v>500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K43" s="3">
         <v>1100</v>
       </c>
-      <c r="E43" s="3">
-        <v>4900</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1400</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H43" s="3">
-        <v>500</v>
-      </c>
-      <c r="I43" s="3">
-        <v>1700</v>
-      </c>
-      <c r="J43" s="3">
-        <v>1100</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3300</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O43" s="3">
         <v>3800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3600</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="E44" s="3">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="F44" s="3">
         <v>1500</v>
       </c>
       <c r="G44" s="3">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="H44" s="3">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="I44" s="3">
         <v>1600</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="J44" s="3">
         <v>1700</v>
       </c>
+      <c r="K44" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="L44" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M44" s="3">
         <v>1900</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O44" s="3">
         <v>2300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1600</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2189,184 +2288,199 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19900</v>
+        <v>17700</v>
       </c>
       <c r="E46" s="3">
-        <v>26900</v>
+        <v>21700</v>
       </c>
       <c r="F46" s="3">
-        <v>26200</v>
+        <v>29300</v>
       </c>
       <c r="G46" s="3">
-        <v>31000</v>
+        <v>28600</v>
       </c>
       <c r="H46" s="3">
-        <v>33000</v>
+        <v>33800</v>
       </c>
       <c r="I46" s="3">
-        <v>23900</v>
+        <v>35900</v>
       </c>
       <c r="J46" s="3">
+        <v>26000</v>
+      </c>
+      <c r="K46" s="3">
         <v>24000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>22600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>20800</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O46" s="3">
         <v>27300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>33700</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E47" s="3">
-        <v>700</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" s="3">
-        <v>700</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I47" s="3">
         <v>800</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K47" s="3">
-        <v>1000</v>
+      <c r="F47" s="3">
+        <v>800</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="3">
+        <v>800</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J47" s="3">
+        <v>900</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L47" s="3">
         <v>1000</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N47" s="3">
-        <v>900</v>
+      <c r="M47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O47" s="3">
         <v>900</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6800</v>
+        <v>6400</v>
       </c>
       <c r="E48" s="3">
-        <v>6800</v>
+        <v>7500</v>
       </c>
       <c r="F48" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="G48" s="3">
-        <v>7500</v>
+        <v>7800</v>
       </c>
       <c r="H48" s="3">
-        <v>7800</v>
+        <v>8200</v>
       </c>
       <c r="I48" s="3">
-        <v>8300</v>
+        <v>8600</v>
       </c>
       <c r="J48" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K48" s="3">
         <v>8600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10800</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O48" s="3">
         <v>11900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12900</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E49" s="3">
+        <v>700</v>
+      </c>
+      <c r="F49" s="3">
         <v>500</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" s="3">
-        <v>500</v>
+      <c r="G49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H49" s="3">
         <v>500</v>
       </c>
       <c r="I49" s="3">
+        <v>500</v>
+      </c>
+      <c r="J49" s="3">
         <v>300</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="K49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L49" s="3">
         <v>300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>400</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N49" s="3">
-        <v>100</v>
+      <c r="N49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O49" s="3">
         <v>100</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2409,8 +2523,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2453,8 +2570,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2464,24 +2584,24 @@
       <c r="E52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F52" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="F52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K52" s="3">
         <v>4000</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>10</v>
       </c>
@@ -2497,8 +2617,11 @@
       <c r="P52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2541,52 +2664,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>28100</v>
+        <v>25600</v>
       </c>
       <c r="E54" s="3">
-        <v>34900</v>
+        <v>30600</v>
       </c>
       <c r="F54" s="3">
-        <v>35000</v>
+        <v>38100</v>
       </c>
       <c r="G54" s="3">
-        <v>39800</v>
+        <v>38200</v>
       </c>
       <c r="H54" s="3">
-        <v>42300</v>
+        <v>43300</v>
       </c>
       <c r="I54" s="3">
-        <v>33200</v>
+        <v>46100</v>
       </c>
       <c r="J54" s="3">
+        <v>36200</v>
+      </c>
+      <c r="K54" s="3">
         <v>36600</v>
-      </c>
-      <c r="K54" s="3">
-        <v>33000</v>
       </c>
       <c r="L54" s="3">
         <v>33000</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="M54" s="3">
+        <v>33000</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O54" s="3">
         <v>40300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>47600</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2603,8 +2732,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2621,140 +2751,150 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I57" s="3">
         <v>2200</v>
       </c>
-      <c r="E57" s="3">
-        <v>3200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>2100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>2900</v>
-      </c>
-      <c r="H57" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I57" s="3">
-        <v>3700</v>
-      </c>
       <c r="J57" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K57" s="3">
         <v>1900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4900</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O57" s="3">
         <v>2600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3600</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F58" s="3">
+        <v>900</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58" s="3">
         <v>800</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J58" s="3">
         <v>800</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I58" s="3">
-        <v>700</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K58" s="3">
-        <v>700</v>
+      <c r="K58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L58" s="3">
         <v>700</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N58" s="3">
-        <v>600</v>
+      <c r="M58" s="3">
+        <v>700</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O58" s="3">
         <v>600</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="E59" s="3">
-        <v>1400</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J59" s="3">
         <v>1100</v>
       </c>
+      <c r="K59" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="L59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M59" s="3">
         <v>2000</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O59" s="3">
         <v>4900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3700</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2765,128 +2905,137 @@
         <v>5400</v>
       </c>
       <c r="F60" s="3">
-        <v>2100</v>
+        <v>5900</v>
       </c>
       <c r="G60" s="3">
-        <v>5300</v>
+        <v>2300</v>
       </c>
       <c r="H60" s="3">
-        <v>2000</v>
+        <v>5800</v>
       </c>
       <c r="I60" s="3">
-        <v>5500</v>
+        <v>2200</v>
       </c>
       <c r="J60" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K60" s="3">
         <v>1900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7600</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O60" s="3">
         <v>8100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8000</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F61" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G61" s="3">
+        <v>5400</v>
+      </c>
+      <c r="H61" s="3">
         <v>4800</v>
       </c>
-      <c r="E61" s="3">
-        <v>4000</v>
-      </c>
-      <c r="F61" s="3">
-        <v>5000</v>
-      </c>
-      <c r="G61" s="3">
-        <v>4400</v>
-      </c>
-      <c r="H61" s="3">
-        <v>5300</v>
-      </c>
       <c r="I61" s="3">
-        <v>4800</v>
+        <v>5800</v>
       </c>
       <c r="J61" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K61" s="3">
         <v>5700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6000</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>6400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6700</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>15000</v>
+        <v>15100</v>
       </c>
       <c r="E62" s="3">
-        <v>15800</v>
+        <v>16300</v>
       </c>
       <c r="F62" s="3">
-        <v>17500</v>
+        <v>17200</v>
       </c>
       <c r="G62" s="3">
-        <v>15600</v>
+        <v>19000</v>
       </c>
       <c r="H62" s="3">
-        <v>17300</v>
+        <v>17000</v>
       </c>
       <c r="I62" s="3">
-        <v>15600</v>
+        <v>18900</v>
       </c>
       <c r="J62" s="3">
+        <v>17000</v>
+      </c>
+      <c r="K62" s="3">
         <v>16700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>15100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>16800</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O62" s="3">
         <v>18200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>17700</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2929,8 +3078,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2973,8 +3125,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3017,52 +3172,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>24700</v>
+        <v>24600</v>
       </c>
       <c r="E66" s="3">
-        <v>25100</v>
+        <v>26900</v>
       </c>
       <c r="F66" s="3">
-        <v>24500</v>
+        <v>27400</v>
       </c>
       <c r="G66" s="3">
-        <v>25200</v>
+        <v>26700</v>
       </c>
       <c r="H66" s="3">
-        <v>24700</v>
+        <v>27500</v>
       </c>
       <c r="I66" s="3">
-        <v>25900</v>
+        <v>26900</v>
       </c>
       <c r="J66" s="3">
+        <v>28200</v>
+      </c>
+      <c r="K66" s="3">
         <v>24300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>26300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>30400</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O66" s="3">
         <v>32700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>32500</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3079,8 +3240,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3123,8 +3285,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3167,8 +3332,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3211,8 +3379,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3255,52 +3426,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-240400</v>
+        <v>-264600</v>
       </c>
       <c r="E72" s="3">
-        <v>-233900</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-229200</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-221300</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K72" s="3">
+        <v>-262000</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-254900</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-249800</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-241200</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L72" s="3">
         <v>-225200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-247500</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O72" s="3">
         <v>-242500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-234900</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3343,8 +3520,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3387,8 +3567,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3431,52 +3614,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3300</v>
+        <v>1000</v>
       </c>
       <c r="E76" s="3">
-        <v>9800</v>
+        <v>3600</v>
       </c>
       <c r="F76" s="3">
-        <v>10500</v>
+        <v>10700</v>
       </c>
       <c r="G76" s="3">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="H76" s="3">
-        <v>17700</v>
+        <v>15800</v>
       </c>
       <c r="I76" s="3">
-        <v>7400</v>
+        <v>19200</v>
       </c>
       <c r="J76" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K76" s="3">
         <v>12300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2600</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O76" s="3">
         <v>7500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15200</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3519,101 +3708,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42551</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-6800</v>
+        <v>-2600</v>
       </c>
       <c r="E81" s="3">
-        <v>-5000</v>
+        <v>-7500</v>
       </c>
       <c r="F81" s="3">
-        <v>-4200</v>
+        <v>-5400</v>
       </c>
       <c r="G81" s="3">
-        <v>-8400</v>
+        <v>-4600</v>
       </c>
       <c r="H81" s="3">
-        <v>-5000</v>
+        <v>-9100</v>
       </c>
       <c r="I81" s="3">
-        <v>300</v>
+        <v>-5400</v>
       </c>
       <c r="J81" s="3">
+        <v>400</v>
+      </c>
+      <c r="K81" s="3">
         <v>5400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3630,8 +3828,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3674,8 +3873,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3718,8 +3920,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3762,8 +3967,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3806,8 +4014,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3850,8 +4061,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3894,52 +4108,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-2400</v>
+        <v>-6900</v>
       </c>
       <c r="E89" s="3">
-        <v>-6300</v>
+        <v>-2700</v>
       </c>
       <c r="F89" s="3">
-        <v>-4100</v>
+        <v>-6900</v>
       </c>
       <c r="G89" s="3">
-        <v>-6800</v>
+        <v>-4400</v>
       </c>
       <c r="H89" s="3">
-        <v>-4100</v>
+        <v>-7400</v>
       </c>
       <c r="I89" s="3">
-        <v>5000</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K89" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L89" s="3">
         <v>3100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3956,8 +4176,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3965,43 +4186,46 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-200</v>
+      <c r="N91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4044,8 +4268,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4088,8 +4315,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4097,43 +4327,46 @@
         <v>-200</v>
       </c>
       <c r="E94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-200</v>
       </c>
       <c r="O94" s="3">
         <v>-200</v>
       </c>
       <c r="P94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4150,8 +4383,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4194,8 +4428,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4238,8 +4475,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4282,8 +4522,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4326,52 +4569,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="E100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H100" s="3">
+        <v>15700</v>
+      </c>
+      <c r="I100" s="3">
+        <v>16100</v>
+      </c>
+      <c r="J100" s="3">
         <v>-600</v>
       </c>
-      <c r="F100" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G100" s="3">
-        <v>14400</v>
-      </c>
-      <c r="H100" s="3">
-        <v>14700</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-600</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-600</v>
+      <c r="K100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L100" s="3">
         <v>-600</v>
       </c>
       <c r="M100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N100" s="3">
         <v>-300</v>
-      </c>
-      <c r="N100" s="3">
-        <v>-600</v>
       </c>
       <c r="O100" s="3">
         <v>-600</v>
       </c>
       <c r="P100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4403,59 +4652,65 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3500</v>
+        <v>-8000</v>
       </c>
       <c r="E102" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="H102" s="3">
+        <v>7900</v>
+      </c>
+      <c r="I102" s="3">
+        <v>11300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L102" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M102" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="N102" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="O102" s="3">
         <v>-7200</v>
       </c>
-      <c r="F102" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="G102" s="3">
-        <v>7300</v>
-      </c>
-      <c r="H102" s="3">
-        <v>10400</v>
-      </c>
-      <c r="I102" s="3">
-        <v>4000</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K102" s="3">
-        <v>2400</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-5600</v>
-      </c>
-      <c r="M102" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="N102" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PXSLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PXSLY_QTR_FIN.xlsx
@@ -743,13 +743,13 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="E8" s="3">
         <v>2700</v>
       </c>
       <c r="F8" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="G8" s="3">
         <v>1600</v>
@@ -761,7 +761,7 @@
         <v>800</v>
       </c>
       <c r="J8" s="3">
-        <v>13900</v>
+        <v>14200</v>
       </c>
       <c r="K8" s="3">
         <v>11400</v>
@@ -805,10 +805,10 @@
         <v>500</v>
       </c>
       <c r="I9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J9" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K9" s="3">
         <v>300</v>
@@ -837,13 +837,13 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="E10" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="F10" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="G10" s="3">
         <v>1400</v>
@@ -852,10 +852,10 @@
         <v>1500</v>
       </c>
       <c r="I10" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J10" s="3">
-        <v>13100</v>
+        <v>13400</v>
       </c>
       <c r="K10" s="3">
         <v>11100</v>
@@ -903,25 +903,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="E12" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F12" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="G12" s="3">
         <v>1200</v>
       </c>
       <c r="H12" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="I12" s="3">
         <v>1200</v>
       </c>
       <c r="J12" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="K12" s="3">
         <v>1200</v>
@@ -1056,7 +1056,7 @@
         <v>500</v>
       </c>
       <c r="H15" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="I15" s="3">
         <v>500</v>
@@ -1107,25 +1107,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10500</v>
+        <v>10700</v>
       </c>
       <c r="E17" s="3">
-        <v>10100</v>
+        <v>10300</v>
       </c>
       <c r="F17" s="3">
-        <v>12500</v>
+        <v>12800</v>
       </c>
       <c r="G17" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="H17" s="3">
-        <v>10300</v>
+        <v>10600</v>
       </c>
       <c r="I17" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="J17" s="3">
-        <v>12700</v>
+        <v>13000</v>
       </c>
       <c r="K17" s="3">
         <v>5800</v>
@@ -1154,25 +1154,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="E18" s="3">
-        <v>-7400</v>
+        <v>-7500</v>
       </c>
       <c r="F18" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="G18" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="H18" s="3">
-        <v>-8400</v>
+        <v>-8600</v>
       </c>
       <c r="I18" s="3">
-        <v>-5100</v>
+        <v>-5200</v>
       </c>
       <c r="J18" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K18" s="3">
         <v>5600</v>
@@ -1220,7 +1220,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E20" s="3">
         <v>-100</v>
@@ -1267,22 +1267,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="E21" s="3">
-        <v>-6300</v>
+        <v>-6400</v>
       </c>
       <c r="F21" s="3">
-        <v>-5400</v>
+        <v>-5500</v>
       </c>
       <c r="G21" s="3">
-        <v>-5000</v>
+        <v>-5100</v>
       </c>
       <c r="H21" s="3">
-        <v>-8200</v>
+        <v>-8300</v>
       </c>
       <c r="I21" s="3">
-        <v>-5000</v>
+        <v>-5100</v>
       </c>
       <c r="J21" s="3">
         <v>400</v>
@@ -1361,22 +1361,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="E23" s="3">
-        <v>-7500</v>
+        <v>-7600</v>
       </c>
       <c r="F23" s="3">
-        <v>-5400</v>
+        <v>-5500</v>
       </c>
       <c r="G23" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="H23" s="3">
-        <v>-9100</v>
+        <v>-9300</v>
       </c>
       <c r="I23" s="3">
-        <v>-5400</v>
+        <v>-5600</v>
       </c>
       <c r="J23" s="3">
         <v>400</v>
@@ -1502,22 +1502,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="E26" s="3">
-        <v>-7500</v>
+        <v>-7600</v>
       </c>
       <c r="F26" s="3">
-        <v>-5400</v>
+        <v>-5500</v>
       </c>
       <c r="G26" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="H26" s="3">
-        <v>-9100</v>
+        <v>-9300</v>
       </c>
       <c r="I26" s="3">
-        <v>-5400</v>
+        <v>-5600</v>
       </c>
       <c r="J26" s="3">
         <v>400</v>
@@ -1549,22 +1549,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="E27" s="3">
-        <v>-7500</v>
+        <v>-7600</v>
       </c>
       <c r="F27" s="3">
-        <v>-5400</v>
+        <v>-5500</v>
       </c>
       <c r="G27" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="H27" s="3">
-        <v>-9100</v>
+        <v>-9300</v>
       </c>
       <c r="I27" s="3">
-        <v>-5400</v>
+        <v>-5600</v>
       </c>
       <c r="J27" s="3">
         <v>400</v>
@@ -1784,7 +1784,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="E32" s="3">
         <v>100</v>
@@ -1831,22 +1831,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="E33" s="3">
-        <v>-7500</v>
+        <v>-7600</v>
       </c>
       <c r="F33" s="3">
-        <v>-5400</v>
+        <v>-5500</v>
       </c>
       <c r="G33" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="H33" s="3">
-        <v>-9100</v>
+        <v>-9300</v>
       </c>
       <c r="I33" s="3">
-        <v>-5400</v>
+        <v>-5600</v>
       </c>
       <c r="J33" s="3">
         <v>400</v>
@@ -1925,22 +1925,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="E35" s="3">
-        <v>-7500</v>
+        <v>-7600</v>
       </c>
       <c r="F35" s="3">
-        <v>-5400</v>
+        <v>-5500</v>
       </c>
       <c r="G35" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="H35" s="3">
-        <v>-9100</v>
+        <v>-9300</v>
       </c>
       <c r="I35" s="3">
-        <v>-5400</v>
+        <v>-5600</v>
       </c>
       <c r="J35" s="3">
         <v>400</v>
@@ -2062,25 +2062,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10700</v>
+        <v>10900</v>
       </c>
       <c r="E41" s="3">
-        <v>18700</v>
+        <v>19100</v>
       </c>
       <c r="F41" s="3">
-        <v>22500</v>
+        <v>23000</v>
       </c>
       <c r="G41" s="3">
-        <v>25400</v>
+        <v>25900</v>
       </c>
       <c r="H41" s="3">
-        <v>30400</v>
+        <v>31000</v>
       </c>
       <c r="I41" s="3">
-        <v>33800</v>
+        <v>34500</v>
       </c>
       <c r="J41" s="3">
-        <v>22500</v>
+        <v>23000</v>
       </c>
       <c r="K41" s="3">
         <v>22900</v>
@@ -2156,16 +2156,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="E43" s="3">
         <v>1200</v>
       </c>
       <c r="F43" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="G43" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H43" s="3">
         <v>1300</v>
@@ -2174,7 +2174,7 @@
         <v>500</v>
       </c>
       <c r="J43" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="K43" s="3">
         <v>1100</v>
@@ -2209,19 +2209,19 @@
         <v>1800</v>
       </c>
       <c r="F44" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G44" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="H44" s="3">
         <v>2200</v>
       </c>
       <c r="I44" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="J44" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>10</v>
@@ -2297,25 +2297,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17700</v>
+        <v>18100</v>
       </c>
       <c r="E46" s="3">
-        <v>21700</v>
+        <v>22100</v>
       </c>
       <c r="F46" s="3">
-        <v>29300</v>
+        <v>30000</v>
       </c>
       <c r="G46" s="3">
-        <v>28600</v>
+        <v>29200</v>
       </c>
       <c r="H46" s="3">
-        <v>33800</v>
+        <v>34600</v>
       </c>
       <c r="I46" s="3">
-        <v>35900</v>
+        <v>36700</v>
       </c>
       <c r="J46" s="3">
-        <v>26000</v>
+        <v>26600</v>
       </c>
       <c r="K46" s="3">
         <v>24000</v>
@@ -2391,25 +2391,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="E48" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="F48" s="3">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="G48" s="3">
-        <v>7800</v>
+        <v>8000</v>
       </c>
       <c r="H48" s="3">
-        <v>8200</v>
+        <v>8400</v>
       </c>
       <c r="I48" s="3">
-        <v>8600</v>
+        <v>8700</v>
       </c>
       <c r="J48" s="3">
-        <v>9000</v>
+        <v>9200</v>
       </c>
       <c r="K48" s="3">
         <v>8600</v>
@@ -2444,7 +2444,7 @@
         <v>700</v>
       </c>
       <c r="F49" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>10</v>
@@ -2673,25 +2673,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>25600</v>
+        <v>26200</v>
       </c>
       <c r="E54" s="3">
-        <v>30600</v>
+        <v>31200</v>
       </c>
       <c r="F54" s="3">
-        <v>38100</v>
+        <v>38900</v>
       </c>
       <c r="G54" s="3">
-        <v>38200</v>
+        <v>39000</v>
       </c>
       <c r="H54" s="3">
-        <v>43300</v>
+        <v>44300</v>
       </c>
       <c r="I54" s="3">
-        <v>46100</v>
+        <v>47100</v>
       </c>
       <c r="J54" s="3">
-        <v>36200</v>
+        <v>37000</v>
       </c>
       <c r="K54" s="3">
         <v>36600</v>
@@ -2758,25 +2758,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E57" s="3">
         <v>2500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G57" s="3">
         <v>2400</v>
-      </c>
-      <c r="F57" s="3">
-        <v>3500</v>
-      </c>
-      <c r="G57" s="3">
-        <v>2300</v>
       </c>
       <c r="H57" s="3">
         <v>3200</v>
       </c>
       <c r="I57" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="J57" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="K57" s="3">
         <v>1900</v>
@@ -2805,7 +2805,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="E58" s="3">
         <v>1300</v>
@@ -2817,7 +2817,7 @@
         <v>10</v>
       </c>
       <c r="H58" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>10</v>
@@ -2899,25 +2899,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="E60" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="F60" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H60" s="3">
         <v>5900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2300</v>
       </c>
-      <c r="H60" s="3">
-        <v>5800</v>
-      </c>
-      <c r="I60" s="3">
-        <v>2200</v>
-      </c>
       <c r="J60" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="K60" s="3">
         <v>1900</v>
@@ -2946,25 +2946,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="E61" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="F61" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="G61" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="H61" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="I61" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="J61" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="K61" s="3">
         <v>5700</v>
@@ -2993,25 +2993,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>15100</v>
+        <v>15400</v>
       </c>
       <c r="E62" s="3">
-        <v>16300</v>
+        <v>16700</v>
       </c>
       <c r="F62" s="3">
-        <v>17200</v>
+        <v>17600</v>
       </c>
       <c r="G62" s="3">
-        <v>19000</v>
+        <v>19400</v>
       </c>
       <c r="H62" s="3">
-        <v>17000</v>
+        <v>17400</v>
       </c>
       <c r="I62" s="3">
-        <v>18900</v>
+        <v>19300</v>
       </c>
       <c r="J62" s="3">
-        <v>17000</v>
+        <v>17400</v>
       </c>
       <c r="K62" s="3">
         <v>16700</v>
@@ -3181,25 +3181,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>24600</v>
+        <v>25100</v>
       </c>
       <c r="E66" s="3">
-        <v>26900</v>
+        <v>27500</v>
       </c>
       <c r="F66" s="3">
-        <v>27400</v>
+        <v>28000</v>
       </c>
       <c r="G66" s="3">
-        <v>26700</v>
+        <v>27300</v>
       </c>
       <c r="H66" s="3">
+        <v>28100</v>
+      </c>
+      <c r="I66" s="3">
         <v>27500</v>
       </c>
-      <c r="I66" s="3">
-        <v>26900</v>
-      </c>
       <c r="J66" s="3">
-        <v>28200</v>
+        <v>28800</v>
       </c>
       <c r="K66" s="3">
         <v>24300</v>
@@ -3435,25 +3435,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-264600</v>
+        <v>-270200</v>
       </c>
       <c r="E72" s="3">
-        <v>-262000</v>
+        <v>-267600</v>
       </c>
       <c r="F72" s="3">
-        <v>-254900</v>
+        <v>-260300</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H72" s="3">
-        <v>-249800</v>
+        <v>-255100</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J72" s="3">
-        <v>-241200</v>
+        <v>-246300</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>10</v>
@@ -3623,25 +3623,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E76" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="F76" s="3">
-        <v>10700</v>
+        <v>10900</v>
       </c>
       <c r="G76" s="3">
-        <v>11500</v>
+        <v>11700</v>
       </c>
       <c r="H76" s="3">
-        <v>15800</v>
+        <v>16200</v>
       </c>
       <c r="I76" s="3">
-        <v>19200</v>
+        <v>19600</v>
       </c>
       <c r="J76" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="K76" s="3">
         <v>12300</v>
@@ -3769,22 +3769,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="E81" s="3">
-        <v>-7500</v>
+        <v>-7600</v>
       </c>
       <c r="F81" s="3">
-        <v>-5400</v>
+        <v>-5500</v>
       </c>
       <c r="G81" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="H81" s="3">
-        <v>-9100</v>
+        <v>-9300</v>
       </c>
       <c r="I81" s="3">
-        <v>-5400</v>
+        <v>-5600</v>
       </c>
       <c r="J81" s="3">
         <v>400</v>
@@ -4117,25 +4117,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-6900</v>
+        <v>-7100</v>
       </c>
       <c r="E89" s="3">
         <v>-2700</v>
       </c>
       <c r="F89" s="3">
-        <v>-6900</v>
+        <v>-7000</v>
       </c>
       <c r="G89" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="H89" s="3">
-        <v>-7400</v>
+        <v>-7600</v>
       </c>
       <c r="I89" s="3">
-        <v>-4500</v>
+        <v>-4600</v>
       </c>
       <c r="J89" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>10</v>
@@ -4201,7 +4201,7 @@
         <v>10</v>
       </c>
       <c r="J91" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>10</v>
@@ -4590,13 +4590,13 @@
         <v>-300</v>
       </c>
       <c r="H100" s="3">
-        <v>15700</v>
+        <v>16100</v>
       </c>
       <c r="I100" s="3">
-        <v>16100</v>
+        <v>16400</v>
       </c>
       <c r="J100" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>10</v>
@@ -4672,25 +4672,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F102" s="3">
         <v>-8000</v>
       </c>
-      <c r="E102" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-7900</v>
-      </c>
       <c r="G102" s="3">
-        <v>-5000</v>
+        <v>-5100</v>
       </c>
       <c r="H102" s="3">
-        <v>7900</v>
+        <v>8100</v>
       </c>
       <c r="I102" s="3">
-        <v>11300</v>
+        <v>11600</v>
       </c>
       <c r="J102" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>10</v>

--- a/AAII_Financials/Quarterly/PXSLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PXSLY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>PXSLY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,221 +665,234 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42551</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6500</v>
+        <v>10200</v>
       </c>
       <c r="E8" s="3">
-        <v>2700</v>
+        <v>6700</v>
       </c>
       <c r="F8" s="3">
-        <v>7300</v>
+        <v>2800</v>
       </c>
       <c r="G8" s="3">
-        <v>1600</v>
+        <v>7500</v>
       </c>
       <c r="H8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I8" s="3">
         <v>2000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>14200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>900</v>
+      </c>
+      <c r="E9" s="3">
         <v>300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
+        <v>600</v>
+      </c>
+      <c r="H9" s="3">
+        <v>200</v>
+      </c>
+      <c r="I9" s="3">
         <v>500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="J9" s="3">
+        <v>300</v>
+      </c>
+      <c r="K9" s="3">
+        <v>800</v>
+      </c>
+      <c r="L9" s="3">
+        <v>300</v>
+      </c>
+      <c r="M9" s="3">
+        <v>500</v>
+      </c>
+      <c r="N9" s="3">
+        <v>400</v>
+      </c>
+      <c r="O9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="P9" s="3">
         <v>500</v>
       </c>
-      <c r="I9" s="3">
-        <v>300</v>
-      </c>
-      <c r="J9" s="3">
-        <v>800</v>
-      </c>
-      <c r="K9" s="3">
-        <v>300</v>
-      </c>
-      <c r="L9" s="3">
-        <v>500</v>
-      </c>
-      <c r="M9" s="3">
-        <v>400</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="Q9" s="3">
+        <v>700</v>
+      </c>
+      <c r="R9" s="3">
         <v>200</v>
       </c>
-      <c r="O9" s="3">
-        <v>500</v>
-      </c>
-      <c r="P9" s="3">
-        <v>700</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6200</v>
+        <v>9300</v>
       </c>
       <c r="E10" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F10" s="3">
         <v>2000</v>
       </c>
-      <c r="F10" s="3">
-        <v>6800</v>
-      </c>
       <c r="G10" s="3">
+        <v>6900</v>
+      </c>
+      <c r="H10" s="3">
         <v>1400</v>
       </c>
-      <c r="H10" s="3">
-        <v>1500</v>
-      </c>
       <c r="I10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J10" s="3">
         <v>600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>13400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>11100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>20400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>9600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -897,55 +910,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>700</v>
+      </c>
+      <c r="E12" s="3">
         <v>1800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M12" s="3">
         <v>2300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="N12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P12" s="3">
         <v>1200</v>
       </c>
-      <c r="H12" s="3">
-        <v>2400</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J12" s="3">
-        <v>2500</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1200</v>
-      </c>
-      <c r="L12" s="3">
-        <v>2300</v>
-      </c>
-      <c r="M12" s="3">
-        <v>2500</v>
-      </c>
-      <c r="N12" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O12" s="3">
-        <v>1200</v>
-      </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -991,16 +1008,19 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
@@ -1023,23 +1043,26 @@
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1050,43 +1073,46 @@
         <v>1200</v>
       </c>
       <c r="F15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G15" s="3">
         <v>1000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>500</v>
-      </c>
-      <c r="L15" s="3">
-        <v>1100</v>
       </c>
       <c r="M15" s="3">
         <v>1100</v>
       </c>
       <c r="N15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O15" s="3">
         <v>600</v>
-      </c>
-      <c r="O15" s="3">
-        <v>1100</v>
       </c>
       <c r="P15" s="3">
         <v>1100</v>
       </c>
       <c r="Q15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R15" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1101,102 +1127,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10700</v>
+        <v>11100</v>
       </c>
       <c r="E17" s="3">
-        <v>10300</v>
+        <v>11000</v>
       </c>
       <c r="F17" s="3">
-        <v>12800</v>
+        <v>10500</v>
       </c>
       <c r="G17" s="3">
-        <v>6400</v>
+        <v>13100</v>
       </c>
       <c r="H17" s="3">
-        <v>10600</v>
+        <v>6600</v>
       </c>
       <c r="I17" s="3">
+        <v>10800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K17" s="3">
+        <v>13000</v>
+      </c>
+      <c r="L17" s="3">
+        <v>5800</v>
+      </c>
+      <c r="M17" s="3">
+        <v>17200</v>
+      </c>
+      <c r="N17" s="3">
+        <v>14200</v>
+      </c>
+      <c r="O17" s="3">
         <v>6100</v>
-      </c>
-      <c r="J17" s="3">
-        <v>13000</v>
-      </c>
-      <c r="K17" s="3">
-        <v>5800</v>
-      </c>
-      <c r="L17" s="3">
-        <v>17200</v>
-      </c>
-      <c r="M17" s="3">
-        <v>14200</v>
-      </c>
-      <c r="N17" s="3">
-        <v>6100</v>
-      </c>
-      <c r="O17" s="3">
-        <v>12300</v>
       </c>
       <c r="P17" s="3">
         <v>12300</v>
       </c>
       <c r="Q17" s="3">
+        <v>12300</v>
+      </c>
+      <c r="R17" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-4200</v>
+        <v>-1000</v>
       </c>
       <c r="E18" s="3">
-        <v>-7500</v>
+        <v>-4300</v>
       </c>
       <c r="F18" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="J18" s="3">
         <v>-5400</v>
       </c>
-      <c r="G18" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-8600</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-6300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-7400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1214,102 +1247,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>1600</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-100</v>
       </c>
       <c r="F20" s="3">
         <v>-100</v>
       </c>
       <c r="G20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>-700</v>
-      </c>
       <c r="I20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2700</v>
       </c>
-      <c r="E21" s="3">
-        <v>-6400</v>
-      </c>
       <c r="F21" s="3">
-        <v>-5500</v>
+        <v>-6600</v>
       </c>
       <c r="G21" s="3">
-        <v>-5100</v>
+        <v>-5600</v>
       </c>
       <c r="H21" s="3">
-        <v>-8300</v>
+        <v>-5300</v>
       </c>
       <c r="I21" s="3">
-        <v>-5100</v>
+        <v>-8600</v>
       </c>
       <c r="J21" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="K21" s="3">
         <v>400</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" s="3">
         <v>5000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-6900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1355,55 +1395,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2700</v>
       </c>
-      <c r="E23" s="3">
-        <v>-7600</v>
-      </c>
       <c r="F23" s="3">
-        <v>-5500</v>
+        <v>-7800</v>
       </c>
       <c r="G23" s="3">
-        <v>-4700</v>
+        <v>-5700</v>
       </c>
       <c r="H23" s="3">
-        <v>-9300</v>
+        <v>-4800</v>
       </c>
       <c r="I23" s="3">
-        <v>-5600</v>
+        <v>-9500</v>
       </c>
       <c r="J23" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="K23" s="3">
         <v>400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1449,8 +1495,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1496,102 +1545,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2700</v>
       </c>
-      <c r="E26" s="3">
-        <v>-7600</v>
-      </c>
       <c r="F26" s="3">
-        <v>-5500</v>
+        <v>-7800</v>
       </c>
       <c r="G26" s="3">
-        <v>-4700</v>
+        <v>-5700</v>
       </c>
       <c r="H26" s="3">
-        <v>-9300</v>
+        <v>-4800</v>
       </c>
       <c r="I26" s="3">
-        <v>-5600</v>
+        <v>-9500</v>
       </c>
       <c r="J26" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="K26" s="3">
         <v>400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2700</v>
       </c>
-      <c r="E27" s="3">
-        <v>-7600</v>
-      </c>
       <c r="F27" s="3">
-        <v>-5500</v>
+        <v>-7800</v>
       </c>
       <c r="G27" s="3">
-        <v>-4700</v>
+        <v>-5700</v>
       </c>
       <c r="H27" s="3">
-        <v>-9300</v>
+        <v>-4800</v>
       </c>
       <c r="I27" s="3">
-        <v>-5600</v>
+        <v>-9500</v>
       </c>
       <c r="J27" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="K27" s="3">
         <v>400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1637,8 +1695,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1684,8 +1745,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1731,8 +1795,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1778,102 +1845,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1600</v>
-      </c>
-      <c r="E32" s="3">
-        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>100</v>
       </c>
       <c r="G32" s="3">
+        <v>100</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>700</v>
-      </c>
       <c r="I32" s="3">
+        <v>800</v>
+      </c>
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2700</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2700</v>
       </c>
-      <c r="E33" s="3">
-        <v>-7600</v>
-      </c>
       <c r="F33" s="3">
-        <v>-5500</v>
+        <v>-7800</v>
       </c>
       <c r="G33" s="3">
-        <v>-4700</v>
+        <v>-5700</v>
       </c>
       <c r="H33" s="3">
-        <v>-9300</v>
+        <v>-4800</v>
       </c>
       <c r="I33" s="3">
-        <v>-5600</v>
+        <v>-9500</v>
       </c>
       <c r="J33" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="K33" s="3">
         <v>400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1919,107 +1995,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2700</v>
       </c>
-      <c r="E35" s="3">
-        <v>-7600</v>
-      </c>
       <c r="F35" s="3">
-        <v>-5500</v>
+        <v>-7800</v>
       </c>
       <c r="G35" s="3">
-        <v>-4700</v>
+        <v>-5700</v>
       </c>
       <c r="H35" s="3">
-        <v>-9300</v>
+        <v>-4800</v>
       </c>
       <c r="I35" s="3">
-        <v>-5600</v>
+        <v>-9500</v>
       </c>
       <c r="J35" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="K35" s="3">
         <v>400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42551</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2037,8 +2122,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2056,55 +2142,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10900</v>
+        <v>13800</v>
       </c>
       <c r="E41" s="3">
-        <v>19100</v>
+        <v>11200</v>
       </c>
       <c r="F41" s="3">
+        <v>19600</v>
+      </c>
+      <c r="G41" s="3">
+        <v>23600</v>
+      </c>
+      <c r="H41" s="3">
+        <v>26600</v>
+      </c>
+      <c r="I41" s="3">
+        <v>31800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>35400</v>
+      </c>
+      <c r="K41" s="3">
         <v>23000</v>
       </c>
-      <c r="G41" s="3">
-        <v>25900</v>
-      </c>
-      <c r="H41" s="3">
-        <v>31000</v>
-      </c>
-      <c r="I41" s="3">
-        <v>34500</v>
-      </c>
-      <c r="J41" s="3">
-        <v>23000</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>22900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>16900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>19200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>21200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>28500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>30100</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2150,102 +2240,111 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5200</v>
+        <v>1700</v>
       </c>
       <c r="E43" s="3">
-        <v>1200</v>
+        <v>5400</v>
       </c>
       <c r="F43" s="3">
-        <v>5400</v>
+        <v>1300</v>
       </c>
       <c r="G43" s="3">
+        <v>5600</v>
+      </c>
+      <c r="H43" s="3">
         <v>1600</v>
       </c>
-      <c r="H43" s="3">
-        <v>1300</v>
-      </c>
       <c r="I43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J43" s="3">
         <v>500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3300</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P43" s="3">
         <v>3800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3600</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F44" s="3">
         <v>1900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H44" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I44" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K44" s="3">
         <v>1800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M44" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N44" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P44" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Q44" s="3">
         <v>1600</v>
       </c>
-      <c r="G44" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H44" s="3">
-        <v>2200</v>
-      </c>
-      <c r="I44" s="3">
-        <v>1700</v>
-      </c>
-      <c r="J44" s="3">
-        <v>1800</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L44" s="3">
-        <v>1700</v>
-      </c>
-      <c r="M44" s="3">
-        <v>1900</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O44" s="3">
-        <v>2300</v>
-      </c>
-      <c r="P44" s="3">
-        <v>1600</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2291,55 +2390,61 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18100</v>
+        <v>17600</v>
       </c>
       <c r="E46" s="3">
-        <v>22100</v>
+        <v>18600</v>
       </c>
       <c r="F46" s="3">
-        <v>30000</v>
+        <v>22700</v>
       </c>
       <c r="G46" s="3">
-        <v>29200</v>
+        <v>30800</v>
       </c>
       <c r="H46" s="3">
-        <v>34600</v>
+        <v>29900</v>
       </c>
       <c r="I46" s="3">
-        <v>36700</v>
+        <v>35500</v>
       </c>
       <c r="J46" s="3">
+        <v>37700</v>
+      </c>
+      <c r="K46" s="3">
         <v>26600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>24000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>22600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>20800</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P46" s="3">
         <v>27300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>33700</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2352,135 +2457,144 @@
       <c r="F47" s="3">
         <v>800</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H47" s="3">
+      <c r="G47" s="3">
         <v>800</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="3">
+        <v>800</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K47" s="3">
         <v>900</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L47" s="3">
-        <v>1000</v>
+      <c r="L47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M47" s="3">
         <v>1000</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O47" s="3">
-        <v>900</v>
+      <c r="N47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P47" s="3">
         <v>900</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>900</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6600</v>
+        <v>5700</v>
       </c>
       <c r="E48" s="3">
-        <v>7600</v>
+        <v>6700</v>
       </c>
       <c r="F48" s="3">
-        <v>7600</v>
+        <v>7800</v>
       </c>
       <c r="G48" s="3">
-        <v>8000</v>
+        <v>7800</v>
       </c>
       <c r="H48" s="3">
-        <v>8400</v>
+        <v>8200</v>
       </c>
       <c r="I48" s="3">
-        <v>8700</v>
+        <v>8600</v>
       </c>
       <c r="J48" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K48" s="3">
         <v>9200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10800</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P48" s="3">
         <v>11900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12900</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E49" s="3">
         <v>700</v>
       </c>
       <c r="F49" s="3">
+        <v>700</v>
+      </c>
+      <c r="G49" s="3">
         <v>600</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H49" s="3">
-        <v>500</v>
+      <c r="H49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I49" s="3">
         <v>500</v>
       </c>
       <c r="J49" s="3">
+        <v>500</v>
+      </c>
+      <c r="K49" s="3">
         <v>300</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M49" s="3">
         <v>300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>400</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O49" s="3">
-        <v>100</v>
+      <c r="O49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P49" s="3">
         <v>100</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>100</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2526,8 +2640,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2573,8 +2690,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2587,24 +2707,24 @@
       <c r="F52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G52" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="G52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L52" s="3">
         <v>4000</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>10</v>
       </c>
@@ -2620,8 +2740,11 @@
       <c r="Q52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2667,55 +2790,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>26200</v>
+        <v>24900</v>
       </c>
       <c r="E54" s="3">
-        <v>31200</v>
+        <v>26800</v>
       </c>
       <c r="F54" s="3">
-        <v>38900</v>
+        <v>32000</v>
       </c>
       <c r="G54" s="3">
-        <v>39000</v>
+        <v>39900</v>
       </c>
       <c r="H54" s="3">
-        <v>44300</v>
+        <v>40000</v>
       </c>
       <c r="I54" s="3">
-        <v>47100</v>
+        <v>45400</v>
       </c>
       <c r="J54" s="3">
+        <v>48300</v>
+      </c>
+      <c r="K54" s="3">
         <v>37000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>36600</v>
-      </c>
-      <c r="L54" s="3">
-        <v>33000</v>
       </c>
       <c r="M54" s="3">
         <v>33000</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="N54" s="3">
+        <v>33000</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P54" s="3">
         <v>40300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>47600</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2733,8 +2862,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2752,290 +2882,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E57" s="3">
         <v>2600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K57" s="3">
+        <v>4100</v>
+      </c>
+      <c r="L57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M57" s="3">
+        <v>4200</v>
+      </c>
+      <c r="N57" s="3">
+        <v>4900</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Q57" s="3">
         <v>3600</v>
       </c>
-      <c r="G57" s="3">
-        <v>2400</v>
-      </c>
-      <c r="H57" s="3">
-        <v>3200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>2300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>4100</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1900</v>
-      </c>
-      <c r="L57" s="3">
-        <v>4200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>4900</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O57" s="3">
-        <v>2600</v>
-      </c>
-      <c r="P57" s="3">
-        <v>3600</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E58" s="3">
         <v>1400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>900</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I58" s="3">
         <v>900</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K58" s="3">
         <v>800</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L58" s="3">
-        <v>700</v>
+      <c r="L58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M58" s="3">
         <v>700</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O58" s="3">
-        <v>600</v>
+      <c r="N58" s="3">
+        <v>700</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P58" s="3">
         <v>600</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>600</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K59" s="3">
         <v>1100</v>
       </c>
-      <c r="E59" s="3">
-        <v>1700</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M59" s="3">
         <v>1100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1100</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2000</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P59" s="3">
         <v>4900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3700</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5000</v>
+        <v>5300</v>
       </c>
       <c r="E60" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="F60" s="3">
+        <v>5600</v>
+      </c>
+      <c r="G60" s="3">
+        <v>6100</v>
+      </c>
+      <c r="H60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I60" s="3">
         <v>6000</v>
       </c>
-      <c r="G60" s="3">
-        <v>2400</v>
-      </c>
-      <c r="H60" s="3">
-        <v>5900</v>
-      </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7600</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P60" s="3">
         <v>8100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8000</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4700</v>
+        <v>4000</v>
       </c>
       <c r="E61" s="3">
-        <v>5400</v>
+        <v>4800</v>
       </c>
       <c r="F61" s="3">
-        <v>4400</v>
+        <v>5500</v>
       </c>
       <c r="G61" s="3">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="H61" s="3">
-        <v>4900</v>
+        <v>5700</v>
       </c>
       <c r="I61" s="3">
-        <v>5900</v>
+        <v>5000</v>
       </c>
       <c r="J61" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K61" s="3">
         <v>5300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>6400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6700</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>15400</v>
+        <v>14100</v>
       </c>
       <c r="E62" s="3">
+        <v>15800</v>
+      </c>
+      <c r="F62" s="3">
+        <v>17100</v>
+      </c>
+      <c r="G62" s="3">
+        <v>18000</v>
+      </c>
+      <c r="H62" s="3">
+        <v>20000</v>
+      </c>
+      <c r="I62" s="3">
+        <v>17800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>19800</v>
+      </c>
+      <c r="K62" s="3">
+        <v>17400</v>
+      </c>
+      <c r="L62" s="3">
         <v>16700</v>
       </c>
-      <c r="F62" s="3">
-        <v>17600</v>
-      </c>
-      <c r="G62" s="3">
-        <v>19400</v>
-      </c>
-      <c r="H62" s="3">
-        <v>17400</v>
-      </c>
-      <c r="I62" s="3">
-        <v>19300</v>
-      </c>
-      <c r="J62" s="3">
-        <v>17400</v>
-      </c>
-      <c r="K62" s="3">
-        <v>16700</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>15100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>16800</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P62" s="3">
         <v>18200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>17700</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3081,8 +3230,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3128,8 +3280,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3175,55 +3330,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>25100</v>
+        <v>23400</v>
       </c>
       <c r="E66" s="3">
-        <v>27500</v>
+        <v>25800</v>
       </c>
       <c r="F66" s="3">
+        <v>28200</v>
+      </c>
+      <c r="G66" s="3">
+        <v>28700</v>
+      </c>
+      <c r="H66" s="3">
         <v>28000</v>
       </c>
-      <c r="G66" s="3">
-        <v>27300</v>
-      </c>
-      <c r="H66" s="3">
-        <v>28100</v>
-      </c>
       <c r="I66" s="3">
-        <v>27500</v>
+        <v>28800</v>
       </c>
       <c r="J66" s="3">
+        <v>28200</v>
+      </c>
+      <c r="K66" s="3">
         <v>28800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>24300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>26300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>30400</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P66" s="3">
         <v>32700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>32500</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3241,8 +3402,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3288,8 +3450,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3335,8 +3500,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3382,8 +3550,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3429,55 +3600,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-270200</v>
+        <v>-276900</v>
       </c>
       <c r="E72" s="3">
-        <v>-267600</v>
+        <v>-277300</v>
       </c>
       <c r="F72" s="3">
-        <v>-260300</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-255100</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J72" s="3">
+        <v>-274600</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-267100</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-261800</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K72" s="3">
         <v>-246300</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M72" s="3">
         <v>-225200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-247500</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P72" s="3">
         <v>-242500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-234900</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3523,8 +3700,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3570,8 +3750,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3617,55 +3800,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E76" s="3">
         <v>1100</v>
       </c>
-      <c r="E76" s="3">
-        <v>3700</v>
-      </c>
       <c r="F76" s="3">
-        <v>10900</v>
+        <v>3800</v>
       </c>
       <c r="G76" s="3">
-        <v>11700</v>
+        <v>11200</v>
       </c>
       <c r="H76" s="3">
-        <v>16200</v>
+        <v>12000</v>
       </c>
       <c r="I76" s="3">
-        <v>19600</v>
+        <v>16600</v>
       </c>
       <c r="J76" s="3">
+        <v>20200</v>
+      </c>
+      <c r="K76" s="3">
         <v>8200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2600</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P76" s="3">
         <v>7500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>15200</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3711,107 +3900,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42551</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2700</v>
       </c>
-      <c r="E81" s="3">
-        <v>-7600</v>
-      </c>
       <c r="F81" s="3">
-        <v>-5500</v>
+        <v>-7800</v>
       </c>
       <c r="G81" s="3">
-        <v>-4700</v>
+        <v>-5700</v>
       </c>
       <c r="H81" s="3">
-        <v>-9300</v>
+        <v>-4800</v>
       </c>
       <c r="I81" s="3">
-        <v>-5600</v>
+        <v>-9500</v>
       </c>
       <c r="J81" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="K81" s="3">
         <v>400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3829,8 +4027,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3876,8 +4075,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3923,8 +4125,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3970,8 +4175,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4017,8 +4225,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4064,8 +4275,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4111,55 +4325,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-7100</v>
+        <v>3800</v>
       </c>
       <c r="E89" s="3">
-        <v>-2700</v>
+        <v>-7300</v>
       </c>
       <c r="F89" s="3">
-        <v>-7000</v>
+        <v>-2800</v>
       </c>
       <c r="G89" s="3">
-        <v>-4500</v>
+        <v>-7200</v>
       </c>
       <c r="H89" s="3">
-        <v>-7600</v>
+        <v>-4600</v>
       </c>
       <c r="I89" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="K89" s="3">
+        <v>5600</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M89" s="3">
+        <v>3100</v>
+      </c>
+      <c r="N89" s="3">
         <v>-4600</v>
       </c>
-      <c r="J89" s="3">
-        <v>5600</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L89" s="3">
-        <v>3100</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4177,8 +4397,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4189,43 +4410,46 @@
         <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H91" s="3">
+      <c r="H91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-200</v>
+      <c r="O91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4271,8 +4495,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4318,8 +4545,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4330,43 +4560,46 @@
         <v>-200</v>
       </c>
       <c r="F94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-200</v>
       </c>
       <c r="P94" s="3">
         <v>-200</v>
       </c>
       <c r="Q94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4384,8 +4617,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4431,8 +4665,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4478,8 +4715,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4525,8 +4765,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4572,55 +4815,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-900</v>
       </c>
-      <c r="E100" s="3">
-        <v>-900</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-700</v>
       </c>
-      <c r="G100" s="3">
-        <v>-300</v>
-      </c>
       <c r="H100" s="3">
-        <v>16100</v>
+        <v>-400</v>
       </c>
       <c r="I100" s="3">
-        <v>16400</v>
+        <v>16500</v>
       </c>
       <c r="J100" s="3">
+        <v>16800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-700</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-600</v>
+      <c r="L100" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M100" s="3">
         <v>-600</v>
       </c>
       <c r="N100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O100" s="3">
         <v>-300</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-600</v>
       </c>
       <c r="P100" s="3">
         <v>-600</v>
       </c>
       <c r="Q100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4655,62 +4904,68 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="G102" s="3">
         <v>-8200</v>
       </c>
-      <c r="E102" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-5100</v>
-      </c>
       <c r="H102" s="3">
-        <v>8100</v>
+        <v>-5200</v>
       </c>
       <c r="I102" s="3">
-        <v>11600</v>
+        <v>8300</v>
       </c>
       <c r="J102" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K102" s="3">
         <v>4500</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M102" s="3">
         <v>2400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-7200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PXSLY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PXSLY_QTR_FIN.xlsx
@@ -747,25 +747,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10200</v>
+        <v>10400</v>
       </c>
       <c r="E8" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="F8" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="G8" s="3">
-        <v>7500</v>
+        <v>7700</v>
       </c>
       <c r="H8" s="3">
         <v>1700</v>
       </c>
       <c r="I8" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="J8" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K8" s="3">
         <v>14200</v>
@@ -847,19 +847,19 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="E10" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="F10" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="G10" s="3">
-        <v>6900</v>
+        <v>7100</v>
       </c>
       <c r="H10" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="I10" s="3">
         <v>1600</v>
@@ -920,7 +920,7 @@
         <v>700</v>
       </c>
       <c r="E12" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="F12" s="3">
         <v>1000</v>
@@ -932,7 +932,7 @@
         <v>1200</v>
       </c>
       <c r="I12" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="J12" s="3">
         <v>1300</v>
@@ -1070,10 +1070,10 @@
         <v>1200</v>
       </c>
       <c r="E15" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F15" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="G15" s="3">
         <v>1000</v>
@@ -1134,25 +1134,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F17" s="3">
+        <v>10800</v>
+      </c>
+      <c r="G17" s="3">
+        <v>13400</v>
+      </c>
+      <c r="H17" s="3">
+        <v>6700</v>
+      </c>
+      <c r="I17" s="3">
         <v>11100</v>
       </c>
-      <c r="E17" s="3">
-        <v>11000</v>
-      </c>
-      <c r="F17" s="3">
-        <v>10500</v>
-      </c>
-      <c r="G17" s="3">
-        <v>13100</v>
-      </c>
-      <c r="H17" s="3">
-        <v>6600</v>
-      </c>
-      <c r="I17" s="3">
-        <v>10800</v>
-      </c>
       <c r="J17" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="K17" s="3">
         <v>13000</v>
@@ -1187,22 +1187,22 @@
         <v>-1000</v>
       </c>
       <c r="E18" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="F18" s="3">
-        <v>-7700</v>
+        <v>-7900</v>
       </c>
       <c r="G18" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="H18" s="3">
-        <v>-4900</v>
+        <v>-5000</v>
       </c>
       <c r="I18" s="3">
-        <v>-8800</v>
+        <v>-9000</v>
       </c>
       <c r="J18" s="3">
-        <v>-5400</v>
+        <v>-5500</v>
       </c>
       <c r="K18" s="3">
         <v>1200</v>
@@ -1304,25 +1304,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E21" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="F21" s="3">
-        <v>-6600</v>
+        <v>-6700</v>
       </c>
       <c r="G21" s="3">
-        <v>-5600</v>
+        <v>-5800</v>
       </c>
       <c r="H21" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="J21" s="3">
         <v>-5300</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-8600</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-5200</v>
       </c>
       <c r="K21" s="3">
         <v>400</v>
@@ -1407,22 +1407,22 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="F23" s="3">
-        <v>-7800</v>
+        <v>-8000</v>
       </c>
       <c r="G23" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="H23" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="I23" s="3">
-        <v>-9500</v>
+        <v>-9800</v>
       </c>
       <c r="J23" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="K23" s="3">
         <v>400</v>
@@ -1557,22 +1557,22 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="F26" s="3">
-        <v>-7800</v>
+        <v>-8000</v>
       </c>
       <c r="G26" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="H26" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="I26" s="3">
-        <v>-9500</v>
+        <v>-9800</v>
       </c>
       <c r="J26" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="K26" s="3">
         <v>400</v>
@@ -1607,22 +1607,22 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="F27" s="3">
-        <v>-7800</v>
+        <v>-8000</v>
       </c>
       <c r="G27" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="H27" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="I27" s="3">
-        <v>-9500</v>
+        <v>-9800</v>
       </c>
       <c r="J27" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="K27" s="3">
         <v>400</v>
@@ -1907,22 +1907,22 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="F33" s="3">
-        <v>-7800</v>
+        <v>-8000</v>
       </c>
       <c r="G33" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="H33" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="I33" s="3">
-        <v>-9500</v>
+        <v>-9800</v>
       </c>
       <c r="J33" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="K33" s="3">
         <v>400</v>
@@ -2007,22 +2007,22 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="F35" s="3">
-        <v>-7800</v>
+        <v>-8000</v>
       </c>
       <c r="G35" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="H35" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="I35" s="3">
-        <v>-9500</v>
+        <v>-9800</v>
       </c>
       <c r="J35" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="K35" s="3">
         <v>400</v>
@@ -2149,25 +2149,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>13800</v>
+        <v>14100</v>
       </c>
       <c r="E41" s="3">
-        <v>11200</v>
+        <v>11400</v>
       </c>
       <c r="F41" s="3">
-        <v>19600</v>
+        <v>20000</v>
       </c>
       <c r="G41" s="3">
-        <v>23600</v>
+        <v>24100</v>
       </c>
       <c r="H41" s="3">
-        <v>26600</v>
+        <v>27200</v>
       </c>
       <c r="I41" s="3">
-        <v>31800</v>
+        <v>32600</v>
       </c>
       <c r="J41" s="3">
-        <v>35400</v>
+        <v>36200</v>
       </c>
       <c r="K41" s="3">
         <v>23000</v>
@@ -2252,13 +2252,13 @@
         <v>1700</v>
       </c>
       <c r="E43" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="F43" s="3">
         <v>1300</v>
       </c>
       <c r="G43" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="H43" s="3">
         <v>1600</v>
@@ -2299,7 +2299,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E44" s="3">
         <v>2000</v>
@@ -2399,25 +2399,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17600</v>
+        <v>18000</v>
       </c>
       <c r="E46" s="3">
-        <v>18600</v>
+        <v>19000</v>
       </c>
       <c r="F46" s="3">
-        <v>22700</v>
+        <v>23200</v>
       </c>
       <c r="G46" s="3">
-        <v>30800</v>
+        <v>31400</v>
       </c>
       <c r="H46" s="3">
-        <v>29900</v>
+        <v>30600</v>
       </c>
       <c r="I46" s="3">
-        <v>35500</v>
+        <v>36300</v>
       </c>
       <c r="J46" s="3">
-        <v>37700</v>
+        <v>38500</v>
       </c>
       <c r="K46" s="3">
         <v>26600</v>
@@ -2499,25 +2499,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="E48" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="F48" s="3">
-        <v>7800</v>
+        <v>8000</v>
       </c>
       <c r="G48" s="3">
-        <v>7800</v>
+        <v>8000</v>
       </c>
       <c r="H48" s="3">
-        <v>8200</v>
+        <v>8400</v>
       </c>
       <c r="I48" s="3">
-        <v>8600</v>
+        <v>8800</v>
       </c>
       <c r="J48" s="3">
-        <v>9000</v>
+        <v>9200</v>
       </c>
       <c r="K48" s="3">
         <v>9200</v>
@@ -2564,7 +2564,7 @@
         <v>10</v>
       </c>
       <c r="I49" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J49" s="3">
         <v>500</v>
@@ -2799,25 +2799,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>24900</v>
+        <v>25400</v>
       </c>
       <c r="E54" s="3">
-        <v>26800</v>
+        <v>27400</v>
       </c>
       <c r="F54" s="3">
-        <v>32000</v>
+        <v>32800</v>
       </c>
       <c r="G54" s="3">
-        <v>39900</v>
+        <v>40800</v>
       </c>
       <c r="H54" s="3">
-        <v>40000</v>
+        <v>40900</v>
       </c>
       <c r="I54" s="3">
-        <v>45400</v>
+        <v>46400</v>
       </c>
       <c r="J54" s="3">
-        <v>48300</v>
+        <v>49400</v>
       </c>
       <c r="K54" s="3">
         <v>37000</v>
@@ -2892,22 +2892,22 @@
         <v>2900</v>
       </c>
       <c r="E57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F57" s="3">
         <v>2600</v>
-      </c>
-      <c r="F57" s="3">
-        <v>2500</v>
       </c>
       <c r="G57" s="3">
         <v>3700</v>
       </c>
       <c r="H57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I57" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J57" s="3">
         <v>2400</v>
-      </c>
-      <c r="I57" s="3">
-        <v>3300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>2300</v>
       </c>
       <c r="K57" s="3">
         <v>4100</v>
@@ -3004,7 +3004,7 @@
         <v>10</v>
       </c>
       <c r="I59" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>10</v>
@@ -3039,25 +3039,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E60" s="3">
         <v>5300</v>
       </c>
-      <c r="E60" s="3">
-        <v>5200</v>
-      </c>
       <c r="F60" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="G60" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="H60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I60" s="3">
+        <v>6200</v>
+      </c>
+      <c r="J60" s="3">
         <v>2400</v>
-      </c>
-      <c r="I60" s="3">
-        <v>6000</v>
-      </c>
-      <c r="J60" s="3">
-        <v>2300</v>
       </c>
       <c r="K60" s="3">
         <v>6100</v>
@@ -3089,25 +3089,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="E61" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="F61" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="G61" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="H61" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="I61" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="J61" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="K61" s="3">
         <v>5300</v>
@@ -3139,25 +3139,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>14100</v>
+        <v>14400</v>
       </c>
       <c r="E62" s="3">
-        <v>15800</v>
+        <v>16100</v>
       </c>
       <c r="F62" s="3">
-        <v>17100</v>
+        <v>17500</v>
       </c>
       <c r="G62" s="3">
-        <v>18000</v>
+        <v>18400</v>
       </c>
       <c r="H62" s="3">
-        <v>20000</v>
+        <v>20400</v>
       </c>
       <c r="I62" s="3">
-        <v>17800</v>
+        <v>18200</v>
       </c>
       <c r="J62" s="3">
-        <v>19800</v>
+        <v>20200</v>
       </c>
       <c r="K62" s="3">
         <v>17400</v>
@@ -3339,25 +3339,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>23400</v>
+        <v>24000</v>
       </c>
       <c r="E66" s="3">
-        <v>25800</v>
+        <v>26300</v>
       </c>
       <c r="F66" s="3">
-        <v>28200</v>
+        <v>28900</v>
       </c>
       <c r="G66" s="3">
+        <v>29300</v>
+      </c>
+      <c r="H66" s="3">
         <v>28700</v>
       </c>
-      <c r="H66" s="3">
-        <v>28000</v>
-      </c>
       <c r="I66" s="3">
+        <v>29500</v>
+      </c>
+      <c r="J66" s="3">
         <v>28800</v>
-      </c>
-      <c r="J66" s="3">
-        <v>28200</v>
       </c>
       <c r="K66" s="3">
         <v>28800</v>
@@ -3609,22 +3609,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-276900</v>
+        <v>-283200</v>
       </c>
       <c r="E72" s="3">
-        <v>-277300</v>
+        <v>-283500</v>
       </c>
       <c r="F72" s="3">
-        <v>-274600</v>
+        <v>-280800</v>
       </c>
       <c r="G72" s="3">
-        <v>-267100</v>
+        <v>-273200</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I72" s="3">
-        <v>-261800</v>
+        <v>-267700</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>10</v>
@@ -3809,25 +3809,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E76" s="3">
         <v>1100</v>
       </c>
       <c r="F76" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="G76" s="3">
-        <v>11200</v>
+        <v>11500</v>
       </c>
       <c r="H76" s="3">
-        <v>12000</v>
+        <v>12300</v>
       </c>
       <c r="I76" s="3">
-        <v>16600</v>
+        <v>16900</v>
       </c>
       <c r="J76" s="3">
-        <v>20200</v>
+        <v>20600</v>
       </c>
       <c r="K76" s="3">
         <v>8200</v>
@@ -3967,22 +3967,22 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="F81" s="3">
-        <v>-7800</v>
+        <v>-8000</v>
       </c>
       <c r="G81" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="H81" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="I81" s="3">
-        <v>-9500</v>
+        <v>-9800</v>
       </c>
       <c r="J81" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="K81" s="3">
         <v>400</v>
@@ -4334,25 +4334,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="E89" s="3">
-        <v>-7300</v>
+        <v>-7400</v>
       </c>
       <c r="F89" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="G89" s="3">
-        <v>-7200</v>
+        <v>-7400</v>
       </c>
       <c r="H89" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="I89" s="3">
-        <v>-7800</v>
+        <v>-8000</v>
       </c>
       <c r="J89" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="K89" s="3">
         <v>5600</v>
@@ -4413,7 +4413,7 @@
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>10</v>
@@ -4560,7 +4560,7 @@
         <v>-200</v>
       </c>
       <c r="F94" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="G94" s="3">
         <v>-300</v>
@@ -4830,7 +4830,7 @@
         <v>-1000</v>
       </c>
       <c r="F100" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="G100" s="3">
         <v>-700</v>
@@ -4839,10 +4839,10 @@
         <v>-400</v>
       </c>
       <c r="I100" s="3">
-        <v>16500</v>
+        <v>16900</v>
       </c>
       <c r="J100" s="3">
-        <v>16800</v>
+        <v>17200</v>
       </c>
       <c r="K100" s="3">
         <v>-700</v>
@@ -4924,25 +4924,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="E102" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-8400</v>
       </c>
-      <c r="F102" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-8200</v>
-      </c>
       <c r="H102" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="I102" s="3">
-        <v>8300</v>
+        <v>8500</v>
       </c>
       <c r="J102" s="3">
-        <v>11900</v>
+        <v>12200</v>
       </c>
       <c r="K102" s="3">
         <v>4500</v>
